--- a/ADtests/Resources/Extra files/Questionnaires/RF QRY [TESTING].xlsx
+++ b/ADtests/Resources/Extra files/Questionnaires/RF QRY [TESTING].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -307,20 +307,55 @@
   </si>
   <si>
     <t>Question description Q1 (Review #: $[203]$)</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>https://www.checker-soft.com/</t>
+  </si>
+  <si>
+    <t>L01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>Thank you RF text</t>
+  </si>
+  <si>
+    <t>Web Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +404,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -378,11 +419,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF83A8CC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF83A8CC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF83A8CC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF83A8CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -391,6 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,17 +755,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
@@ -2671,6 +2732,88 @@
       <c r="AZ23" s="6"/>
       <c r="BA23" s="1"/>
     </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="1"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ADtests/Resources/Extra files/Questionnaires/RF QRY [TESTING].xlsx
+++ b/ADtests/Resources/Extra files/Questionnaires/RF QRY [TESTING].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>Web Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2846
+</t>
   </si>
 </sst>
 </file>
@@ -438,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -451,6 +455,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +765,10 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1152,8 +1159,8 @@
       <c r="P3" s="5">
         <v>7</v>
       </c>
-      <c r="Q3" s="1">
-        <v>2846</v>
+      <c r="Q3" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
